--- a/Data/Qualitative analysis results/curated human.xlsx
+++ b/Data/Qualitative analysis results/curated human.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xingqian/Desktop/msr_replication_package/Data/Qualitative analysis results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E44681C-6171-BD49-9BD0-7C89E9025EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556CFDC7-4DD5-AF4E-8E24-B14B16E96AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="3940" windowWidth="28040" windowHeight="17180" xr2:uid="{3A05C43E-DAAD-8848-9FF2-320DDEDB2F83}"/>
+    <workbookView xWindow="3240" yWindow="3740" windowWidth="28040" windowHeight="17180" xr2:uid="{3A05C43E-DAAD-8848-9FF2-320DDEDB2F83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="157">
   <si>
     <t>curated human</t>
   </si>
@@ -239,12 +239,285 @@
   <si>
     <t>usability, maintainability</t>
   </si>
+  <si>
+    <t xml:space="preserve"> PR url</t>
+  </si>
+  <si>
+    <t>Commit Url</t>
+  </si>
+  <si>
+    <t>https://github.com/Effect-TS/effect-smol/pull/246</t>
+  </si>
+  <si>
+    <t>https://github.com/Effect-TS/effect-smol/pull/246/commits/03b95375c9c7e76e20a8f8066c26c640ce96e867</t>
+  </si>
+  <si>
+    <t>https://github.com/giselles-ai/giselle/pull/1322</t>
+  </si>
+  <si>
+    <t>https://github.com/giselles-ai/giselle/pull/1322/commits/ede11db027f6a1da204a790abe23dab6ab40cbeb</t>
+  </si>
+  <si>
+    <t>https://github.com/MontrealAI/AGI-Alpha-Agent-v0/pull/868</t>
+  </si>
+  <si>
+    <t>https://github.com/MontrealAI/AGI-Alpha-Agent-v0/pull/868/commits/25994d84094bf2277d0e9d37f10f0636a90166f6</t>
+  </si>
+  <si>
+    <t>https://github.com/giselles-ai/giselle/pull/968</t>
+  </si>
+  <si>
+    <t>https://github.com/giselles-ai/giselle/pull/968/commits/90515706fb71a33ad8a372d892971d0c6ee1a4fa</t>
+  </si>
+  <si>
+    <t>https://github.com/hmislk/hmis/pull/14104</t>
+  </si>
+  <si>
+    <t>https://github.com/hmislk/hmis/pull/14104/commits/8fbe4c2b020aac365e5ea809ccbd27a38b3750f1</t>
+  </si>
+  <si>
+    <t>https://github.com/yoshiko-pg/difit/pull/58</t>
+  </si>
+  <si>
+    <t>https://github.com/yoshiko-pg/difit/pull/58/commits/690d291f03df389668d7e2a72f621e864cabf226</t>
+  </si>
+  <si>
+    <t>https://github.com/liam-hq/liam/pull/2224</t>
+  </si>
+  <si>
+    <t>https://github.com/liam-hq/liam/pull/2224/commits/209871c02f8da27f5b2db91fcf1db533a98919a4</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenAgentsInc/openagents/pull/1219</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenAgentsInc/openagents/pull/1219/commits/9e8951924a29340ed73d925fe57bf00af6633d82</t>
+  </si>
+  <si>
+    <t>https://github.com/go-vikunja/vikunja/pull/1015</t>
+  </si>
+  <si>
+    <t>https://github.com/go-vikunja/vikunja/pull/1015/commits/972dacc8e50458b329ea97e358d9f36d81fea152</t>
+  </si>
+  <si>
+    <t>https://github.com/hmislk/hmis/pull/13876</t>
+  </si>
+  <si>
+    <t>https://github.com/hmislk/hmis/pull/13876/commits/ae439f12d0673faa32a352eb9604ae7aba4f1b37</t>
+  </si>
+  <si>
+    <t>https://github.com/MervinPraison/PraisonAI/pull/594</t>
+  </si>
+  <si>
+    <t>https://github.com/MervinPraison/PraisonAI/pull/594/commits/0d407fc4d03eca3ef4f6d2e0dfde5e74ec87f3e7</t>
+  </si>
+  <si>
+    <t>https://github.com/mochilang/mochi/pull/9066</t>
+  </si>
+  <si>
+    <t>https://github.com/mochilang/mochi/pull/9066/commits/19e48f39b0f00e8f1c0f19df7b0b7e839b4f1b2b</t>
+  </si>
+  <si>
+    <t>https://github.com/mochilang/mochi/pull/3081</t>
+  </si>
+  <si>
+    <t>https://github.com/mochilang/mochi/pull/3081/commits/65b646992e203dc73764d8c312c7ce8a87a1541f</t>
+  </si>
+  <si>
+    <t>https://github.com/rsyslog/rsyslog/pull/5671</t>
+  </si>
+  <si>
+    <t>https://github.com/rsyslog/rsyslog/pull/5671/commits/0443323e37e968fc3143a3c63f59b6f9d1af21cf</t>
+  </si>
+  <si>
+    <t>https://github.com/mochilang/mochi/pull/2812</t>
+  </si>
+  <si>
+    <t>https://github.com/mochilang/mochi/pull/2812/commits/06755dfe79c677fd40def4a600fe6a78e38ef47d</t>
+  </si>
+  <si>
+    <t>https://github.com/mochilang/mochi/pull/1137</t>
+  </si>
+  <si>
+    <t>https://github.com/mochilang/mochi/pull/1137/commits/a1aa10f0ed0ca18d296132e261c2ef18bb9aae07</t>
+  </si>
+  <si>
+    <t>https://github.com/MontrealAI/AGI-Alpha-Agent-v0/pull/3482</t>
+  </si>
+  <si>
+    <t>https://github.com/MontrealAI/AGI-Alpha-Agent-v0/pull/3482/commits/f4418ded88a9dfb2e35bde73416b98bff9a78d3c</t>
+  </si>
+  <si>
+    <t>https://github.com/theepicsaxguy/homelab/pull/821</t>
+  </si>
+  <si>
+    <t>https://github.com/theepicsaxguy/homelab/pull/821/commits/7479db5dee2d2ca99d98b7f7ea6f7dce5789b5db</t>
+  </si>
+  <si>
+    <t>https://github.com/gofiber/fiber/pull/3491</t>
+  </si>
+  <si>
+    <t>https://github.com/gofiber/fiber/pull/3491/commits/21e9eadb253a2f77bb96c66a12f031b115ee5fdd</t>
+  </si>
+  <si>
+    <t>https://github.com/hmislk/hmis/pull/13702</t>
+  </si>
+  <si>
+    <t>https://github.com/hmislk/hmis/pull/13702/commits/f10cbab471d9a5c6b0cc2c4630d7428cd80be422</t>
+  </si>
+  <si>
+    <t>https://github.com/MontrealAI/AGI-Alpha-Agent-v0/pull/1480</t>
+  </si>
+  <si>
+    <t>https://github.com/MontrealAI/AGI-Alpha-Agent-v0/pull/1480/commits/2c0f9ef2e5b3cc0f062f8046c3314c1cd488b5b3</t>
+  </si>
+  <si>
+    <t>https://github.com/bionic-gpt/bionic-gpt/pull/847</t>
+  </si>
+  <si>
+    <t>https://github.com/bionic-gpt/bionic-gpt/pull/847/commits/82d011769635f18fb880b24ed8b08f846414a634</t>
+  </si>
+  <si>
+    <t>https://github.com/fclairamb/ftpserverlib/pull/543</t>
+  </si>
+  <si>
+    <t>https://github.com/fclairamb/ftpserverlib/pull/543/commits/a81ca0dd1360772b505b7763f17c7117110462de</t>
+  </si>
+  <si>
+    <t>https://github.com/shinnku-nikaidou/shinnku-com/pull/218</t>
+  </si>
+  <si>
+    <t>https://github.com/shinnku-nikaidou/shinnku-com/pull/218/commits/e0e744e39e20003a118b3cc35c941d0490bc4896</t>
+  </si>
+  <si>
+    <t>https://github.com/mochilang/mochi/pull/319</t>
+  </si>
+  <si>
+    <t>https://github.com/mochilang/mochi/pull/319/commits/057d10948f8c8c9fbde8418c22c7573293a72279</t>
+  </si>
+  <si>
+    <t>https://github.com/anyproto/anytype-ts/pull/1442</t>
+  </si>
+  <si>
+    <t>https://github.com/anyproto/anytype-ts/pull/1442/commits/7b3d6a2d27bf04ec988ebdda1edd1778895f52af</t>
+  </si>
+  <si>
+    <t>https://github.com/gabber235/Typewriter/pull/355</t>
+  </si>
+  <si>
+    <t>https://github.com/MontrealAI/AGI-Alpha-Agent-v0/pull/2742</t>
+  </si>
+  <si>
+    <t>https://github.com/MontrealAI/AGI-Alpha-Agent-v0/pull/2742/commits/5285c72af79961439f860d68f95288061fa06ace</t>
+  </si>
+  <si>
+    <t>https://github.com/leonteale/pentestpackage/pull/15</t>
+  </si>
+  <si>
+    <t>https://github.com/leonteale/pentestpackage/pull/15/commits/a1d6d3039b95e43fad471f2067a12d32f928118f</t>
+  </si>
+  <si>
+    <t>https://github.com/jdereg/java-util/pull/279</t>
+  </si>
+  <si>
+    <t>https://github.com/jdereg/java-util/pull/279/commits/e769da7a664ee8cee6f208f2a7ca5e513817ce1a</t>
+  </si>
+  <si>
+    <t>https://github.com/Kiln-AI/Kiln/pull/353</t>
+  </si>
+  <si>
+    <t>https://github.com/Kiln-AI/Kiln/pull/353/commits/5a358f348c2c617957b4f5aadac5dbf32c217d48</t>
+  </si>
+  <si>
+    <t>https://github.com/ar-io/ar-io-node/pull/390</t>
+  </si>
+  <si>
+    <t>https://github.com/ar-io/ar-io-node/pull/390/commits/9ce062a160818c6ed4901eb35a7a66db768bd508</t>
+  </si>
+  <si>
+    <t>https://github.com/hmislk/hmis/pull/12953</t>
+  </si>
+  <si>
+    <t>https://github.com/hmislk/hmis/pull/12953/commits/b570c479131d8831a45df9a04fdf7c2937ec2ed5</t>
+  </si>
+  <si>
+    <t>https://github.com/forntoh/LcdMenu/pull/370</t>
+  </si>
+  <si>
+    <t>https://github.com/forntoh/LcdMenu/pull/370/commits/dce05b8dde7cdfdb68fca6488a6a2a81a08492b5</t>
+  </si>
+  <si>
+    <t>https://github.com/hmislk/hmis/pull/13085</t>
+  </si>
+  <si>
+    <t>https://github.com/hmislk/hmis/pull/13085/commits/f2d933fc00211168f8af51f3e97ed35c604c98e3</t>
+  </si>
+  <si>
+    <t>https://github.com/mochilang/mochi/pull/11953</t>
+  </si>
+  <si>
+    <t>https://github.com/mochilang/mochi/pull/11953/commits/3f28a67089e4af162a1da1e0bb949cc5a41a1e13</t>
+  </si>
+  <si>
+    <t>https://github.com/mochilang/mochi/pull/11956</t>
+  </si>
+  <si>
+    <t>https://github.com/mochilang/mochi/pull/11956/commits/d83338f58309b9dc9fc9077ee92b59358da60642</t>
+  </si>
+  <si>
+    <t>https://github.com/kornia/kornia-rs/pull/386</t>
+  </si>
+  <si>
+    <t>https://github.com/kornia/kornia-rs/pull/386/commits/28c5296352ad1d24023d42986b8acb1027a9e5e2</t>
+  </si>
+  <si>
+    <t>https://github.com/mochilang/mochi/pull/61</t>
+  </si>
+  <si>
+    <t>https://github.com/mochilang/mochi/pull/61/commits/955afb8a3d0f7984602caad51fb33931e112c8e2</t>
+  </si>
+  <si>
+    <t>https://github.com/LayerZero-Labs/devtools/pull/1504</t>
+  </si>
+  <si>
+    <t>https://github.com/LayerZero-Labs/devtools/pull/1504/commits/01476600144bc6f12fdf802b141b3ee635890f14</t>
+  </si>
+  <si>
+    <t>https://github.com/herbie-fp/herbie/pull/1255</t>
+  </si>
+  <si>
+    <t>https://github.com/herbie-fp/herbie/pull/1255/commits/a0728c3bd10bc7b6eed936a453c01c7f88152ed8</t>
+  </si>
+  <si>
+    <t>https://github.com/DannyMac180/meta-agent/pull/178</t>
+  </si>
+  <si>
+    <t>https://github.com/DannyMac180/meta-agent/pull/178/commits/4ee46e675a9f7095f13b67fa6c782833d970b7e3</t>
+  </si>
+  <si>
+    <t>https://github.com/giselles-ai/giselle/pull/1035</t>
+  </si>
+  <si>
+    <t>https://github.com/giselles-ai/giselle/pull/1035/commits/f22a4af45941a29f5d6079fd031ebec606e9f1ce</t>
+  </si>
+  <si>
+    <t>https://github.com/MihaiCristianCondrea/Smart-Cleaner-for-Android/pull/167</t>
+  </si>
+  <si>
+    <t>https://github.com/MihaiCristianCondrea/Smart-Cleaner-for-Android/pull/167/commits/22ebddc39e4eb596e86f8d094482269921055ad1</t>
+  </si>
+  <si>
+    <t>https://github.com/prebid/Prebid.js/pull/13610</t>
+  </si>
+  <si>
+    <t>https://github.com/prebid/Prebid.js/pull/13610/commits/a9b576bdcb4b37eecb4b9a2b1330716ed4c7a8a0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -255,6 +528,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF467886"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -277,10 +566,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -290,13 +580,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -629,53 +922,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BA5BB9-A2E7-1447-9B39-3B69358DE6A5}">
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="M53" sqref="M53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="19.5" customWidth="1"/>
-    <col min="13" max="13" width="23.1640625" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="13" max="13" width="30.83203125" customWidth="1"/>
+    <col min="14" max="14" width="19.5" customWidth="1"/>
+    <col min="15" max="15" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4"/>
+      <c r="I1" s="5"/>
       <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -709,8 +1010,10 @@
       <c r="K2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>3248781517</v>
       </c>
@@ -744,17 +1047,23 @@
       <c r="K3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3208990831</v>
       </c>
@@ -788,15 +1097,21 @@
       <c r="K4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3195340595</v>
       </c>
@@ -830,15 +1145,21 @@
       <c r="K5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>3089493086</v>
       </c>
@@ -872,17 +1193,23 @@
       <c r="K6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>3095654449</v>
       </c>
@@ -916,15 +1243,21 @@
       <c r="K7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="N7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>3254327333</v>
       </c>
@@ -958,15 +1291,21 @@
       <c r="K8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="O8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3177654490</v>
       </c>
@@ -1000,13 +1339,19 @@
       <c r="K9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>3266763733</v>
       </c>
@@ -1040,15 +1385,21 @@
       <c r="K10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3" t="s">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>3173359831</v>
       </c>
@@ -1082,14 +1433,20 @@
       <c r="K11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="O11" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>3225866930</v>
       </c>
@@ -1123,12 +1480,18 @@
       <c r="K12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3116524279</v>
       </c>
@@ -1162,12 +1525,18 @@
       <c r="K13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3236980215</v>
       </c>
@@ -1201,12 +1570,18 @@
       <c r="K14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>3173795517</v>
       </c>
@@ -1240,12 +1615,18 @@
       <c r="K15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="N15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>3127975454</v>
       </c>
@@ -1279,12 +1660,18 @@
       <c r="K16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>3170902968</v>
       </c>
@@ -1318,12 +1705,18 @@
       <c r="K17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>3150173245</v>
       </c>
@@ -1357,12 +1750,18 @@
       <c r="K18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>3115357809</v>
       </c>
@@ -1396,12 +1795,18 @@
       <c r="K19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="N19" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>3120422035</v>
       </c>
@@ -1435,12 +1840,18 @@
       <c r="K20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>3097032976</v>
       </c>
@@ -1474,14 +1885,20 @@
       <c r="K21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="M21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="N21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="O21" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>3204838429</v>
       </c>
@@ -1515,14 +1932,20 @@
       <c r="K22" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="O22" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>3112184328</v>
       </c>
@@ -1556,14 +1979,20 @@
       <c r="K23" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="N23" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="O23" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>3153588722</v>
       </c>
@@ -1597,12 +2026,18 @@
       <c r="K24" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="M24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>3129968277</v>
       </c>
@@ -1636,14 +2071,20 @@
       <c r="K25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="O25" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>3198125733</v>
       </c>
@@ -1677,12 +2118,18 @@
       <c r="K26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>3132446519</v>
       </c>
@@ -1716,14 +2163,20 @@
       <c r="K27" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="N27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="O27" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>3116933099</v>
       </c>
@@ -1757,12 +2210,18 @@
       <c r="K28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="L28" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="N28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>3157263251</v>
       </c>
@@ -1796,12 +2255,16 @@
       <c r="K29" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="L29" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="M29" s="6"/>
+      <c r="N29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>3185668942</v>
       </c>
@@ -1835,12 +2298,18 @@
       <c r="K30" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="L30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="M30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N30" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>3156507338</v>
       </c>
@@ -1874,12 +2343,18 @@
       <c r="K31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="L31" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="N31" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>3151725100</v>
       </c>
@@ -1913,12 +2388,18 @@
       <c r="K32" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L32" s="3" t="s">
+      <c r="L32" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M32" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="N32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>3130771251</v>
       </c>
@@ -1952,12 +2433,18 @@
       <c r="K33" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M33" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="N33" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>3076941014</v>
       </c>
@@ -1991,12 +2478,18 @@
       <c r="K34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N34" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>3137636027</v>
       </c>
@@ -2030,14 +2523,20 @@
       <c r="K35" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="M35" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="N35" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M35" s="3" t="s">
+      <c r="O35" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>3137753437</v>
       </c>
@@ -2071,12 +2570,18 @@
       <c r="K36" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="N36" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" s="3"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>3147398035</v>
       </c>
@@ -2110,14 +2615,20 @@
       <c r="K37" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="M37" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="N37" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="O37" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>3252423628</v>
       </c>
@@ -2151,12 +2662,18 @@
       <c r="K38" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="M38" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="N38" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="3"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>3252509087</v>
       </c>
@@ -2190,12 +2707,18 @@
       <c r="K39" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="M39" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="N39" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>3124475993</v>
       </c>
@@ -2229,12 +2752,18 @@
       <c r="K40" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="L40" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M40" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="N40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>3118408336</v>
       </c>
@@ -2268,12 +2797,18 @@
       <c r="K41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="L41" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M41" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="N41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>3078704170</v>
       </c>
@@ -2307,14 +2842,20 @@
       <c r="K42" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="M42" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="N42" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="O42" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>3127634416</v>
       </c>
@@ -2348,14 +2889,20 @@
       <c r="K43" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M43" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="N43" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="O43" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>3133919091</v>
       </c>
@@ -2389,12 +2936,18 @@
       <c r="K44" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M44" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="N44" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" ht="256" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="1:16" ht="256" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>3112794915</v>
       </c>
@@ -2428,17 +2981,23 @@
       <c r="K45" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M45" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="N45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M45" s="5" t="s">
+      <c r="O45" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="N45" s="3" t="s">
+      <c r="P45" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>3223548095</v>
       </c>
@@ -2472,12 +3031,18 @@
       <c r="K46" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="L46" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="M46" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="N46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="M46" s="5"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>3233206925</v>
       </c>
@@ -2511,24 +3076,30 @@
       <c r="K47" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="M47" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="N47" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="O47" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="M48" s="5"/>
-    </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M49" s="5"/>
-    </row>
-    <row r="50" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M50" s="5"/>
-    </row>
-    <row r="51" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M51" s="3"/>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O48" s="4"/>
+    </row>
+    <row r="49" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="4"/>
+    </row>
+    <row r="50" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="4"/>
+    </row>
+    <row r="51" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2536,6 +3107,97 @@
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="H1:I1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L3" r:id="rId1" xr:uid="{EB214194-9A1B-B64B-8422-44BF4AE68346}"/>
+    <hyperlink ref="M3" r:id="rId2" xr:uid="{7DD50CB4-2F5D-4A44-B92C-A1FAC88560B4}"/>
+    <hyperlink ref="L4" r:id="rId3" xr:uid="{6E669A88-57DE-0C4A-8186-FC8DF61AEA9D}"/>
+    <hyperlink ref="M4" r:id="rId4" xr:uid="{98F2BB77-32EB-684D-97BF-CBC3F98AFE50}"/>
+    <hyperlink ref="L5" r:id="rId5" xr:uid="{F039C7A3-1610-B24A-8C06-AFB8195F75F5}"/>
+    <hyperlink ref="M5" r:id="rId6" xr:uid="{E21E62E2-7C93-BC41-95E1-A947511535F4}"/>
+    <hyperlink ref="L6" r:id="rId7" xr:uid="{C73F856E-95B4-BD45-AA10-21943FA3FB99}"/>
+    <hyperlink ref="M6" r:id="rId8" xr:uid="{C5C4B691-4B54-F448-9B52-32340F1162AA}"/>
+    <hyperlink ref="L7" r:id="rId9" xr:uid="{5D45E369-35FB-F14A-81D4-2150A0FABE99}"/>
+    <hyperlink ref="M7" r:id="rId10" xr:uid="{04511240-A296-0943-A63B-3916BF121D5A}"/>
+    <hyperlink ref="L8" r:id="rId11" xr:uid="{9C92D9F7-1AD1-FD48-AB62-A09EF3C5EECB}"/>
+    <hyperlink ref="M8" r:id="rId12" xr:uid="{B8906668-FFE3-AA46-97AA-DCB6057FBA49}"/>
+    <hyperlink ref="L9" r:id="rId13" xr:uid="{69F19896-62A1-624B-8A1E-923ABD65BBE7}"/>
+    <hyperlink ref="M9" r:id="rId14" xr:uid="{C27DF61B-5232-C743-B869-87DB31090D43}"/>
+    <hyperlink ref="L10" r:id="rId15" xr:uid="{AD65DC7B-7127-4F47-8E4A-974A06E0D046}"/>
+    <hyperlink ref="M10" r:id="rId16" xr:uid="{7799C162-69D4-5645-8CAE-3163CD463C3C}"/>
+    <hyperlink ref="L11" r:id="rId17" xr:uid="{E20230E0-B677-2943-AEF4-65029D19EA93}"/>
+    <hyperlink ref="M11" r:id="rId18" xr:uid="{7234ED16-54C4-CF43-B372-C58DE322E9A6}"/>
+    <hyperlink ref="L12" r:id="rId19" xr:uid="{F09109F7-B203-5D44-9B58-D267F68EA691}"/>
+    <hyperlink ref="M12" r:id="rId20" xr:uid="{775C05CB-1B4B-6040-BEAD-D98B59C78AF3}"/>
+    <hyperlink ref="L13" r:id="rId21" xr:uid="{54CA7A10-4128-6C42-82C2-D4E780A03016}"/>
+    <hyperlink ref="M13" r:id="rId22" xr:uid="{D71F97C5-1980-2547-B1A8-D07D68F7B21C}"/>
+    <hyperlink ref="L14" r:id="rId23" xr:uid="{AD811728-60DA-544F-A40E-F24BBE12A7BD}"/>
+    <hyperlink ref="M14" r:id="rId24" xr:uid="{7C889088-2045-3842-B025-8F1842CD5422}"/>
+    <hyperlink ref="L15" r:id="rId25" xr:uid="{B86D04A7-8A52-0547-BFE9-0FF87E763712}"/>
+    <hyperlink ref="M15" r:id="rId26" xr:uid="{107940C2-00B8-8548-A4A2-29942889732C}"/>
+    <hyperlink ref="L16" r:id="rId27" xr:uid="{431FD4A0-C634-EA45-84DF-5DCE10E0283B}"/>
+    <hyperlink ref="M16" r:id="rId28" xr:uid="{CDA2BB78-A802-7646-A18F-EBF9927926D1}"/>
+    <hyperlink ref="L17" r:id="rId29" xr:uid="{24C9E877-0350-A149-A3E1-1A29E67D5F62}"/>
+    <hyperlink ref="M17" r:id="rId30" xr:uid="{A93CF72C-5653-4145-92B5-1326B8C48058}"/>
+    <hyperlink ref="L18" r:id="rId31" xr:uid="{4AC0170F-AEEF-6D45-BBB1-B8DCB644AB04}"/>
+    <hyperlink ref="M18" r:id="rId32" xr:uid="{2D15B4D7-B53D-CA49-9919-AF2E00EF9D6B}"/>
+    <hyperlink ref="L19" r:id="rId33" xr:uid="{F3E6598F-003C-2846-A343-4736A211C6CB}"/>
+    <hyperlink ref="M19" r:id="rId34" xr:uid="{64F30409-F3E5-364E-B5F1-D2643EE950D6}"/>
+    <hyperlink ref="L20" r:id="rId35" xr:uid="{3B569C05-F2C4-BB44-80A4-E490D22E67F9}"/>
+    <hyperlink ref="M20" r:id="rId36" xr:uid="{B25638AA-CF41-6348-A1EC-9CC43CE0FBE8}"/>
+    <hyperlink ref="L21" r:id="rId37" xr:uid="{0C507539-CE21-E047-BFE4-2FE7EFBF2B19}"/>
+    <hyperlink ref="M21" r:id="rId38" xr:uid="{4D4F6BD4-CED9-3E41-9F4B-A144423A2675}"/>
+    <hyperlink ref="L22" r:id="rId39" xr:uid="{66231F42-07D8-C343-AD46-4BB9BC79C1A0}"/>
+    <hyperlink ref="M22" r:id="rId40" xr:uid="{9A8CB0C2-6A94-E043-9A9B-09EEBB660803}"/>
+    <hyperlink ref="L23" r:id="rId41" xr:uid="{92799100-2F20-114E-8508-120C721DEEAB}"/>
+    <hyperlink ref="M23" r:id="rId42" xr:uid="{D6E180D7-C306-8142-9340-60F5801699AE}"/>
+    <hyperlink ref="L24" r:id="rId43" xr:uid="{0AABDCBC-5B09-444B-BC6A-E1D3404C7E32}"/>
+    <hyperlink ref="M24" r:id="rId44" xr:uid="{CD1A4CC5-EB3E-4A4A-8642-06FBC09B226E}"/>
+    <hyperlink ref="L25" r:id="rId45" xr:uid="{D578B4EA-E491-4F48-A6B9-B31818A9CC8A}"/>
+    <hyperlink ref="M25" r:id="rId46" xr:uid="{C293C8E7-1E00-4B49-890D-440B896A1287}"/>
+    <hyperlink ref="L26" r:id="rId47" xr:uid="{42E647B6-9C2E-784B-8286-E2DF0D6B3A05}"/>
+    <hyperlink ref="M26" r:id="rId48" xr:uid="{A90569EA-5D69-3141-A8C0-B2B83A53A05B}"/>
+    <hyperlink ref="L27" r:id="rId49" xr:uid="{16CFE782-2950-0043-8806-B7E529E8D09B}"/>
+    <hyperlink ref="M27" r:id="rId50" xr:uid="{3F3E72A9-2D12-AF41-B281-58D66A05F930}"/>
+    <hyperlink ref="L28" r:id="rId51" xr:uid="{630B30F2-79F3-FC4C-94CA-2304F01726FE}"/>
+    <hyperlink ref="M28" r:id="rId52" xr:uid="{4FA6C2AB-398C-884A-864C-824EB4C38DC1}"/>
+    <hyperlink ref="L29" r:id="rId53" xr:uid="{A759BBB0-3BB9-C14A-ADC5-429608932B1B}"/>
+    <hyperlink ref="L30" r:id="rId54" xr:uid="{9A530F5E-2FBB-6942-9D27-70C337B0533C}"/>
+    <hyperlink ref="M30" r:id="rId55" xr:uid="{66BACD3D-EDF7-0340-9238-6EDDAA3C2568}"/>
+    <hyperlink ref="L31" r:id="rId56" xr:uid="{216576DD-3D4E-AA40-8FB6-56FC9BD033C3}"/>
+    <hyperlink ref="M31" r:id="rId57" xr:uid="{EF470609-FFC5-8944-BEAF-FB91BD9EEDC8}"/>
+    <hyperlink ref="L32" r:id="rId58" xr:uid="{B5987F2D-1F25-684C-8017-6481414EE0FA}"/>
+    <hyperlink ref="M32" r:id="rId59" xr:uid="{9E1D5A53-0ED7-B346-AF19-68C79DD9F1F8}"/>
+    <hyperlink ref="L33" r:id="rId60" xr:uid="{B354F275-AF68-3041-868D-F99E9A86F77C}"/>
+    <hyperlink ref="M33" r:id="rId61" xr:uid="{443591C2-5654-744A-8B66-261DE61E383B}"/>
+    <hyperlink ref="L34" r:id="rId62" xr:uid="{76F32978-138E-7B4E-914B-D294D11E5D1E}"/>
+    <hyperlink ref="M34" r:id="rId63" xr:uid="{DBC8E721-AC30-894A-81B6-558B8DA02203}"/>
+    <hyperlink ref="L35" r:id="rId64" xr:uid="{FFFE556F-5C08-C741-A43F-2D3050619AEC}"/>
+    <hyperlink ref="M35" r:id="rId65" xr:uid="{47BEC564-933F-EB45-93CB-963CFDB9D2B8}"/>
+    <hyperlink ref="L36" r:id="rId66" xr:uid="{438117F9-7554-AE48-8BC5-06668E2A2F62}"/>
+    <hyperlink ref="M36" r:id="rId67" xr:uid="{D183EFF2-BD67-1B48-956A-5FFE0F604082}"/>
+    <hyperlink ref="L37" r:id="rId68" xr:uid="{98E246B4-266D-6E4A-A506-C00B83A73E88}"/>
+    <hyperlink ref="M37" r:id="rId69" xr:uid="{AC7F4111-D561-A644-9B87-D059F297854C}"/>
+    <hyperlink ref="L38" r:id="rId70" xr:uid="{E21A4537-7484-1348-9532-BAF76653D668}"/>
+    <hyperlink ref="M38" r:id="rId71" xr:uid="{B25EA172-F56D-5349-9796-80DDBCA4426A}"/>
+    <hyperlink ref="L39" r:id="rId72" xr:uid="{3DBE505D-F6B2-A74A-B4F1-94F483F099DB}"/>
+    <hyperlink ref="M39" r:id="rId73" xr:uid="{3866153E-12F3-684F-B05D-E6A7DAEDF884}"/>
+    <hyperlink ref="L40" r:id="rId74" xr:uid="{55DF4E69-99E8-E446-BFBA-335E52824051}"/>
+    <hyperlink ref="M40" r:id="rId75" xr:uid="{176D807A-6CDB-1D4D-A60E-BB6E843CB7AB}"/>
+    <hyperlink ref="L41" r:id="rId76" xr:uid="{659B2EE5-EA3D-6344-A9F2-C104D89641DD}"/>
+    <hyperlink ref="M41" r:id="rId77" xr:uid="{976BF332-84D4-D84F-83F7-8384E266690A}"/>
+    <hyperlink ref="L42" r:id="rId78" xr:uid="{AC91D7EC-1EBC-BF44-B3B3-F817430A81D1}"/>
+    <hyperlink ref="M42" r:id="rId79" xr:uid="{2906A102-1F44-D442-9BDD-3CF26A3C01CB}"/>
+    <hyperlink ref="L43" r:id="rId80" xr:uid="{7F77F5F2-22E0-1246-86E1-FB9933D3F065}"/>
+    <hyperlink ref="M43" r:id="rId81" xr:uid="{5E77043E-8977-C94E-86FB-D442BE98151B}"/>
+    <hyperlink ref="L44" r:id="rId82" xr:uid="{04D7F3B2-0CBC-8A45-9F85-D2E41BDF79F0}"/>
+    <hyperlink ref="M44" r:id="rId83" xr:uid="{E18F1C71-E095-394A-A654-8A425B8BD9DE}"/>
+    <hyperlink ref="L45" r:id="rId84" xr:uid="{84BCBE95-E032-1549-9132-DCF34E2E0322}"/>
+    <hyperlink ref="M45" r:id="rId85" xr:uid="{6249FE0C-42FA-C140-BBD0-A73BBA45F6AC}"/>
+    <hyperlink ref="L46" r:id="rId86" xr:uid="{C6C868AB-0845-314C-8E46-B3AA1DE826CB}"/>
+    <hyperlink ref="M46" r:id="rId87" xr:uid="{CEC2851F-C031-3A49-9F94-37034F8D64CA}"/>
+    <hyperlink ref="L47" r:id="rId88" xr:uid="{9FBB0510-FD8B-A64B-99C2-327B55FD4F40}"/>
+    <hyperlink ref="M47" r:id="rId89" xr:uid="{C4C8CF2E-01F7-424F-8263-B7CA54CF13AC}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>